--- a/main code/data/instiz.xlsx
+++ b/main code/data/instiz.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021 영화 담당기자 22명이 뽑은 올해 최악의 연기 순위.jpg</t>
+          <t>동생 레이한테 속담, 신조어 알려주다가 탈탈 털리는 아이브 유진 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>세븐틴 비니</t>
+          <t>백챠</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:43</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -504,22 +504,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[6편] 전국시대를 평정하고 스스로를 제육천마왕이라 칭하다. 전국 3대 영..</t>
+          <t>연예인 음주운전 명부</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>청량섹시 김태</t>
+          <t>어니부깅</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -537,26 +537,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영화 등장씬 ost 대결 (토르 vs 원더우먼)</t>
+          <t>그동안 잘못 안 전세계 국가들 실제 크기</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>쿵쾅맨</t>
+          <t>누눈나난</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -570,30 +572,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>일본 여중생의 발차기 실력</t>
+          <t>(과몰입용) 지브리 캐릭터 별 MBTI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>311354_return</t>
+          <t>Laniakea</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>761</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -603,32 +607,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>남자 어른이 말하자 태도가 달라지는 업체</t>
+          <t>그림체 다르지만 캐미 자랑하는 안은진, 조이, 강예원</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTD</t>
+          <t>츄르릅</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2245</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -638,27 +640,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(주관) 넷플릭스에서 시청가능한 코미디 드라마 최고봉</t>
+          <t>이게 진상질인가요? 요즘 알바 다 이 모양인가요?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JOSHUA95</t>
+          <t>지수</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>2272</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
